--- a/Teacher.xlsx
+++ b/Teacher.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amey Bobade\Desktop\RPA SCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2B22AA-5AD2-449E-8D31-8CB3531AC0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07405C6-21D3-4EAF-8B50-DEF0CF9ADBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{2DB60F7E-48A9-4A19-8622-43D75CF5D98A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>EMP CODE</t>
   </si>
@@ -42,9 +42,6 @@
     <t>WORKING DAYS</t>
   </si>
   <si>
-    <t>LEAVES</t>
-  </si>
-  <si>
     <t>STATUS</t>
   </si>
   <si>
@@ -57,7 +54,31 @@
     <t>Name</t>
   </si>
   <si>
-    <t>ameybobade@gmail.com</t>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Check no.</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>ENTC</t>
+  </si>
+  <si>
+    <t>PAID DAYS</t>
+  </si>
+  <si>
+    <t>TOTAL SALARY</t>
+  </si>
+  <si>
+    <t>amey.21810866@viit.ac.in</t>
   </si>
   <si>
     <t>ameybobade1103@gmail.com</t>
@@ -423,31 +444,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE03301-5973-46AB-9972-05B43ABD75A6}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -456,21 +481,33 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5458484</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>2000</v>
@@ -482,24 +519,37 @@
         <v>30</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>165162</v>
+      </c>
+      <c r="L2">
+        <f>D2-E2</f>
+        <v>1850</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5154545</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E3">
         <v>450</v>
@@ -508,10 +558,23 @@
         <v>15</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>321651</v>
+      </c>
+      <c r="L3">
+        <f>D3-E3</f>
+        <v>5550</v>
       </c>
     </row>
   </sheetData>
